--- a/表.xlsx
+++ b/表.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="127">
   <si>
     <t>三星</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,6 +455,14 @@
   </si>
   <si>
     <t>amd专用 8g *2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器均热板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeoECO620闲鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1083,7 +1091,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1154,7 +1162,12 @@
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="8">
+        <v>55</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7">
         <v>4</v>
@@ -1164,7 +1177,12 @@
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="8">
+        <v>142</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7">
         <v>5</v>
@@ -1223,11 +1241,11 @@
     <row r="13" spans="1:5">
       <c r="D13" s="22">
         <f>SUM(C2:C13)</f>
-        <v>356</v>
+        <v>553</v>
       </c>
       <c r="E13" s="8">
         <f>SUM(C2:C6)</f>
-        <v>301</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/表.xlsx
+++ b/表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="19200" windowHeight="11020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="131">
   <si>
     <t>三星</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>声卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Intel Xeon E5-2630 v2 (2.6G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -434,10 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>猫头鹰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>￥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -446,23 +438,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ASUS M5A78L-M/USB3 A78主板AM3 AM3+ FX系四通道集显HDMI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三星500g 2.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>amd专用 8g *2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>服务器均热板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NeoECO620闲鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASUS M5A97 EVO R2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amd专用 8g *4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evga gtx460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rm2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t8e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -975,14 +991,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="1"/>
-    <col min="5" max="5" width="9.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="6"/>
-    <col min="7" max="7" width="8.90625" style="5"/>
-    <col min="8" max="8" width="8.90625" style="3"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="6"/>
+    <col min="7" max="7" width="8.88671875" style="5"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1091,21 +1107,21 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="17.08984375" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7">
@@ -1117,10 +1133,11 @@
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2" s="8">
-        <v>145</v>
+        <f>132+23</f>
+        <v>155</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7">
@@ -1135,8 +1152,8 @@
         <v>124</v>
       </c>
       <c r="C3" s="8">
-        <f>78*2</f>
-        <v>156</v>
+        <f>78*4</f>
+        <v>312</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7">
@@ -1148,7 +1165,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
@@ -1163,7 +1180,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C5" s="8">
         <v>55</v>
@@ -1178,7 +1195,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C6" s="8">
         <v>142</v>
@@ -1192,7 +1209,13 @@
       <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="B7" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="20">
+        <f>50</f>
+        <v>50</v>
+      </c>
       <c r="E7" s="21">
         <v>6</v>
       </c>
@@ -1201,7 +1224,13 @@
       <c r="A8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="B8" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="20">
+        <f>180</f>
+        <v>180</v>
+      </c>
       <c r="E8" s="21">
         <v>7</v>
       </c>
@@ -1211,10 +1240,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C9" s="16">
-        <v>55</v>
+        <f>55+125</f>
+        <v>180</v>
       </c>
       <c r="E9" s="17">
         <v>8</v>
@@ -1222,18 +1252,29 @@
     </row>
     <row r="10" spans="1:5" s="17" customFormat="1">
       <c r="A10" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="16"/>
+        <v>129</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="16">
+        <v>130</v>
+      </c>
       <c r="E10" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="17" customFormat="1">
       <c r="A11" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="16"/>
+        <v>127</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="16">
+        <f>280+40</f>
+        <v>320</v>
+      </c>
       <c r="E11" s="17">
         <v>10</v>
       </c>
@@ -1241,11 +1282,11 @@
     <row r="13" spans="1:5">
       <c r="D13" s="22">
         <f>SUM(C2:C13)</f>
-        <v>553</v>
+        <v>1524</v>
       </c>
       <c r="E13" s="8">
         <f>SUM(C2:C6)</f>
-        <v>498</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -1266,15 +1307,15 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1472,7 +1513,7 @@
     </row>
     <row r="10" spans="1:8" s="18" customFormat="1">
       <c r="A10" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="19">
         <v>80</v>
@@ -2082,298 +2123,298 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>76</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>77</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>78</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>79</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>80</v>
-      </c>
-      <c r="K1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
         <v>95</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>96</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>97</v>
-      </c>
-      <c r="F2" t="s">
-        <v>98</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" t="s">
         <v>100</v>
-      </c>
-      <c r="K2" t="s">
-        <v>101</v>
       </c>
       <c r="L2">
         <v>32882</v>
       </c>
       <c r="M2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
         <v>96</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>97</v>
-      </c>
-      <c r="F3" t="s">
-        <v>98</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" t="s">
         <v>100</v>
-      </c>
-      <c r="K3" t="s">
-        <v>101</v>
       </c>
       <c r="L3">
         <v>32882</v>
       </c>
       <c r="M3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" t="s">
         <v>100</v>
-      </c>
-      <c r="K4" t="s">
-        <v>101</v>
       </c>
       <c r="L4">
         <v>32882</v>
       </c>
       <c r="M4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s">
         <v>100</v>
-      </c>
-      <c r="K5" t="s">
-        <v>101</v>
       </c>
       <c r="L5">
         <v>32882</v>
       </c>
       <c r="M5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" t="s">
         <v>100</v>
-      </c>
-      <c r="K6" t="s">
-        <v>101</v>
       </c>
       <c r="L6">
         <v>32882</v>
       </c>
       <c r="M6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="14" customFormat="1">
       <c r="A7" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>87</v>
       </c>
       <c r="G7" s="14">
         <v>4</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="K7" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="L7" s="14" t="e">
         <f>-GS02B</f>
@@ -2382,119 +2423,119 @@
     </row>
     <row r="8" spans="1:13" s="14" customFormat="1">
       <c r="A8" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>87</v>
       </c>
       <c r="G8" s="14">
         <v>4</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
         <v>100</v>
-      </c>
-      <c r="K9" t="s">
-        <v>101</v>
       </c>
       <c r="L9">
         <v>32882</v>
       </c>
       <c r="M9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1">
       <c r="A10" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="18">
         <v>2</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J10" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>101</v>
       </c>
       <c r="L10" s="18">
         <v>32882</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/表.xlsx
+++ b/表.xlsx
@@ -438,10 +438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三星500g 2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>服务器均热板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,6 +475,10 @@
   </si>
   <si>
     <t>t8e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星500g 2.5+ssd 256</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1133,7 +1133,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="8">
         <f>132+23</f>
@@ -1149,11 +1149,11 @@
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="8">
-        <f>78*4</f>
-        <v>312</v>
+        <f>168*2</f>
+        <v>336</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7">
@@ -1168,7 +1168,8 @@
         <v>119</v>
       </c>
       <c r="C4" s="8">
-        <v>0</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7">
@@ -1180,10 +1181,11 @@
         <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="8">
-        <v>55</v>
+        <f>55+33-8.5</f>
+        <v>79.5</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7">
@@ -1195,7 +1197,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="8">
         <v>142</v>
@@ -1210,11 +1212,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="20">
-        <f>50</f>
-        <v>50</v>
+        <f>50+10</f>
+        <v>60</v>
       </c>
       <c r="E7" s="21">
         <v>6</v>
@@ -1225,7 +1227,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="20">
         <f>180</f>
@@ -1240,7 +1242,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C9" s="16">
         <f>55+125</f>
@@ -1252,10 +1254,10 @@
     </row>
     <row r="10" spans="1:5" s="17" customFormat="1">
       <c r="A10" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>129</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>130</v>
       </c>
       <c r="C10" s="16">
         <v>130</v>
@@ -1266,10 +1268,10 @@
     </row>
     <row r="11" spans="1:5" s="17" customFormat="1">
       <c r="A11" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>128</v>
       </c>
       <c r="C11" s="16">
         <f>280+40</f>
@@ -1282,11 +1284,11 @@
     <row r="13" spans="1:5">
       <c r="D13" s="22">
         <f>SUM(C2:C13)</f>
-        <v>1524</v>
+        <v>1682.5</v>
       </c>
       <c r="E13" s="8">
         <f>SUM(C2:C6)</f>
-        <v>664</v>
+        <v>812.5</v>
       </c>
     </row>
   </sheetData>
